--- a/data/held_josran.xlsx
+++ b/data/held_josran.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRH\Documents\GitHub\srh_proj_dsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DBE107-01B9-47D5-8DEB-AA88FB9FA43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747B9E2-56B6-4CB7-9735-924FCC033D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>KK</t>
   </si>
   <si>
-    <t>LeP</t>
-  </si>
-  <si>
     <t>AsP</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Ausweichen</t>
+  </si>
+  <si>
+    <t>LP</t>
   </si>
 </sst>
 </file>
@@ -141,8 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +426,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,170 +435,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>6</v>
       </c>
     </row>

--- a/data/held_josran.xlsx
+++ b/data/held_josran.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SRH\Documents\GitHub\srh_proj_dsa\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaelm\srh_proj_dsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747B9E2-56B6-4CB7-9735-924FCC033D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A031A-FECF-4FD6-89CE-34CEC2E323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>key</t>
   </si>
@@ -96,16 +96,19 @@
     <t>AP</t>
   </si>
   <si>
-    <t>Geschwindigkeit</t>
-  </si>
-  <si>
     <t>8 schritt</t>
   </si>
   <si>
-    <t>Ausweichen</t>
-  </si>
-  <si>
     <t>LP</t>
+  </si>
+  <si>
+    <t>has_grimoire</t>
+  </si>
+  <si>
+    <t>ausweichen</t>
+  </si>
+  <si>
+    <t>geschwindigkeit</t>
   </si>
 </sst>
 </file>
@@ -141,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -423,183 +429,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/held_josran.xlsx
+++ b/data/held_josran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaelm\srh_proj_dsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A031A-FECF-4FD6-89CE-34CEC2E323A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439DEEB-90F2-48B8-ACB8-502A6CD8CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,13 +102,13 @@
     <t>LP</t>
   </si>
   <si>
-    <t>has_grimoire</t>
-  </si>
-  <si>
     <t>ausweichen</t>
   </si>
   <si>
     <t>geschwindigkeit</t>
+  </si>
+  <si>
+    <t>zaubern</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>

--- a/data/held_josran.xlsx
+++ b/data/held_josran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaelm\srh_proj_dsa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8439DEEB-90F2-48B8-ACB8-502A6CD8CD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DC2B0-A8CF-44EC-AF42-ED64B659BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t>geschwindigkeit</t>
   </si>
   <si>
-    <t>zaubern</t>
+    <t>grimoire</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
